--- a/inventario/Plugin/Excel/Almacen/Solicitud Almacen.xlsx
+++ b/inventario/Plugin/Excel/Almacen/Solicitud Almacen.xlsx
@@ -15,41 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>No. de solicitud</t>
-  </si>
-  <si>
-    <t>Departamento Solicitante</t>
-  </si>
-  <si>
-    <t>Encargado</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Ordenado: Descendente</t>
-  </si>
-  <si>
-    <t>Mantenimiento</t>
-  </si>
-  <si>
-    <t>Admin Master (Administrador)</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>2022-10-04</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,78 +349,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37" customWidth="true" style="0"/>
-    <col min="3" max="3" width="44" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.3" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
